--- a/IMDA/Part_4_Speaker_Metadata.xlsx
+++ b/IMDA/Part_4_Speaker_Metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\44932\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E52A57-E702-4419-BECB-9DDE34D5A55B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7AC80EE-0A3C-4B9A-AAFC-3299930E7E7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17578" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17584" uniqueCount="327">
   <si>
     <t>PSLE</t>
   </si>
@@ -1059,6 +1059,15 @@
   <si>
     <t>SPEAKERS</t>
   </si>
+  <si>
+    <t>3093</t>
+  </si>
+  <si>
+    <t>2768</t>
+  </si>
+  <si>
+    <t>2769</t>
+  </si>
 </sst>
 </file>
 
@@ -1524,9 +1533,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P2247"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2137" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O2156" sqref="O2156"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1424" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P1439" sqref="P1439"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1936,7 +1945,7 @@
       </c>
       <c r="P10" cm="1">
         <f t="array" ref="P10">SUMPRODUCT(1/COUNTIF(B2:B2167,B2:B2167))</f>
-        <v>2064.9999999999995</v>
+        <v>2067.9999999999995</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
@@ -56169,8 +56178,8 @@
       <c r="A1438" s="2">
         <v>884</v>
       </c>
-      <c r="B1438" s="2">
-        <v>2767</v>
+      <c r="B1438" s="2" t="s">
+        <v>325</v>
       </c>
       <c r="C1438" s="1" t="s">
         <v>40</v>
@@ -56199,16 +56208,16 @@
       <c r="K1438" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="L1438" s="17">
-        <v>2766</v>
+      <c r="L1438" s="17" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="1439" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1439" s="2">
         <v>884</v>
       </c>
-      <c r="B1439" s="2">
-        <v>2766</v>
+      <c r="B1439" s="2" t="s">
+        <v>326</v>
       </c>
       <c r="C1439" s="1" t="s">
         <v>40</v>
@@ -56237,8 +56246,8 @@
       <c r="K1439" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="L1439" s="17">
-        <v>2767</v>
+      <c r="L1439" s="17" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="1440" spans="1:12" x14ac:dyDescent="0.3">
@@ -66763,16 +66772,16 @@
       <c r="K1716" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="L1716" s="17">
-        <v>3068</v>
+      <c r="L1716" s="17" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="1717" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1717" s="2">
         <v>1046</v>
       </c>
-      <c r="B1717" s="2">
-        <v>3068</v>
+      <c r="B1717" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="C1717" s="1" t="s">
         <v>37</v>
